--- a/Ruas_b.xlsx
+++ b/Ruas_b.xlsx
@@ -70,13 +70,13 @@
     <t>FS018, Avenida Dezessete de Agosto, Monteiro, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 52061-105, Brasil</t>
   </si>
   <si>
-    <t>Hospital Pernambucano, Rua Cônego Barata, Tamarineira, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 52051-020, Brasil</t>
+    <t>75, Rua Cônego Barata, Tamarineira, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 52051-020, Brasil</t>
   </si>
   <si>
     <t>Odontologic Consultórios, Avenida Falcão de Lacerda, Tejipió, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 50930-010, Brasil</t>
   </si>
   <si>
-    <t>070016, Avenida Liberdade, Totó, Curado, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 50920-135, Brasil</t>
+    <t>070016, Avenida Liberdade, Curado, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 50920-135, Brasil</t>
   </si>
 </sst>
 </file>
